--- a/Лічильники/Таблиця споживання енергоносіїв/Потижнево/Таблиця споживання енергоносіїв 2022 грудень.xlsx
+++ b/Лічильники/Таблиця споживання енергоносіїв/Потижнево/Таблиця споживання енергоносіїв 2022 грудень.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="І тиждень" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,14 +921,18 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>400</v>
+      </c>
       <c r="H7" s="7">
         <v>293</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>291</v>
+      </c>
       <c r="J7" s="7">
         <f>G7-I7</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
